--- a/data/pca/factorExposure/factorExposure_2018-04-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0101561869262621</v>
+        <v>-0.01471751315823425</v>
       </c>
       <c r="C2">
-        <v>0.02627040787627817</v>
+        <v>0.01796566925231598</v>
       </c>
       <c r="D2">
-        <v>0.03254588681563997</v>
+        <v>0.03439771751304711</v>
       </c>
       <c r="E2">
-        <v>-0.005479176738131687</v>
+        <v>-0.01918878562805551</v>
       </c>
       <c r="F2">
-        <v>-0.1040434547016906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.002961841334573683</v>
+      </c>
+      <c r="G2">
+        <v>0.0354386058531535</v>
+      </c>
+      <c r="H2">
+        <v>-0.04765391610903957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.0917500583737761</v>
+        <v>-0.06702583191519636</v>
       </c>
       <c r="C3">
-        <v>0.04611740712673917</v>
+        <v>-0.01217136055943033</v>
       </c>
       <c r="D3">
-        <v>0.0328720451370931</v>
+        <v>0.08420132521784408</v>
       </c>
       <c r="E3">
-        <v>-0.0319692391479546</v>
+        <v>-0.007440386440993874</v>
       </c>
       <c r="F3">
-        <v>-0.3552479948541421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.02099841399835414</v>
+      </c>
+      <c r="G3">
+        <v>0.1534663824051594</v>
+      </c>
+      <c r="H3">
+        <v>-0.1230036976033622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04348280869499156</v>
+        <v>-0.03460042032593091</v>
       </c>
       <c r="C4">
-        <v>0.01420340552718956</v>
+        <v>0.005600954381440004</v>
       </c>
       <c r="D4">
-        <v>0.04410721063971032</v>
+        <v>0.06645388714043318</v>
       </c>
       <c r="E4">
-        <v>0.0262301497710424</v>
+        <v>0.01606926177365626</v>
       </c>
       <c r="F4">
-        <v>-0.05930138462302759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.03720187285594355</v>
+      </c>
+      <c r="G4">
+        <v>0.04219514786824662</v>
+      </c>
+      <c r="H4">
+        <v>-0.05798107324061461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03212756259428586</v>
+        <v>-0.0192413764947117</v>
       </c>
       <c r="C6">
-        <v>0.01173969356748535</v>
+        <v>0.001311389468007903</v>
       </c>
       <c r="D6">
-        <v>0.0392682516975033</v>
+        <v>0.06535524594339208</v>
       </c>
       <c r="E6">
-        <v>0.0177147320793302</v>
+        <v>0.005483759432347956</v>
       </c>
       <c r="F6">
-        <v>-0.008152997044368223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03149406138723648</v>
+      </c>
+      <c r="G6">
+        <v>0.0141707636227577</v>
+      </c>
+      <c r="H6">
+        <v>-0.05902437930780542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03601441908242659</v>
+        <v>-0.007938840238540155</v>
       </c>
       <c r="C7">
-        <v>-0.02864733801308439</v>
+        <v>0.004214633821957232</v>
       </c>
       <c r="D7">
-        <v>0.0391169627175714</v>
+        <v>0.03661106733761101</v>
       </c>
       <c r="E7">
-        <v>0.01244733815212667</v>
+        <v>0.04323604841522397</v>
       </c>
       <c r="F7">
-        <v>-0.03667359893269503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.002772722707746391</v>
+      </c>
+      <c r="G7">
+        <v>0.02240646496100752</v>
+      </c>
+      <c r="H7">
+        <v>-0.03527645200292867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01476066618710151</v>
+        <v>-0.001807667032012649</v>
       </c>
       <c r="C8">
-        <v>0.0008497928753022307</v>
+        <v>-0.001032032729310298</v>
       </c>
       <c r="D8">
-        <v>0.05050356045551797</v>
+        <v>0.01222801525918536</v>
       </c>
       <c r="E8">
-        <v>0.01662549928516779</v>
+        <v>0.009132503924809727</v>
       </c>
       <c r="F8">
-        <v>-0.06271309921829288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.009639120102443811</v>
+      </c>
+      <c r="G8">
+        <v>0.03814078538266526</v>
+      </c>
+      <c r="H8">
+        <v>-0.03474716173270409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03091721499331656</v>
+        <v>-0.02636296732098318</v>
       </c>
       <c r="C9">
-        <v>0.008800725271105463</v>
+        <v>0.002171259059304593</v>
       </c>
       <c r="D9">
-        <v>0.03626572280827862</v>
+        <v>0.04890138892335689</v>
       </c>
       <c r="E9">
-        <v>0.00911948086912137</v>
+        <v>0.005768846252373313</v>
       </c>
       <c r="F9">
-        <v>-0.07855154103190859</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01278708350551096</v>
+      </c>
+      <c r="G9">
+        <v>0.04392508413541606</v>
+      </c>
+      <c r="H9">
+        <v>-0.05562802232840985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04130363145250344</v>
+        <v>-0.1349168655873337</v>
       </c>
       <c r="C10">
-        <v>0.002040835563566101</v>
+        <v>-0.003523943447841451</v>
       </c>
       <c r="D10">
-        <v>-0.1487901800936626</v>
+        <v>-0.147589889977345</v>
       </c>
       <c r="E10">
-        <v>-0.0306206385320293</v>
+        <v>-0.0007484934456383611</v>
       </c>
       <c r="F10">
-        <v>-0.06935398253014514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04108504884331503</v>
+      </c>
+      <c r="G10">
+        <v>0.03058135835931562</v>
+      </c>
+      <c r="H10">
+        <v>0.008005295420145048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02905714037847651</v>
+        <v>-0.01574597645443408</v>
       </c>
       <c r="C11">
-        <v>0.020802709136588</v>
+        <v>-0.009963939975934092</v>
       </c>
       <c r="D11">
-        <v>0.04155158754737791</v>
+        <v>0.04971753773287851</v>
       </c>
       <c r="E11">
-        <v>0.01245591655786828</v>
+        <v>-0.001475789196779843</v>
       </c>
       <c r="F11">
-        <v>-0.02604583316199893</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01036174363568958</v>
+      </c>
+      <c r="G11">
+        <v>0.0194108037104048</v>
+      </c>
+      <c r="H11">
+        <v>-0.05198443959626521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04079037788205944</v>
+        <v>-0.01969291258718738</v>
       </c>
       <c r="C12">
-        <v>0.02015658323797541</v>
+        <v>-0.006242023657243247</v>
       </c>
       <c r="D12">
-        <v>0.03543697963414067</v>
+        <v>0.04911646486683404</v>
       </c>
       <c r="E12">
-        <v>0.02149389539797491</v>
+        <v>0.01105024733017233</v>
       </c>
       <c r="F12">
-        <v>-0.001061722161918411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01327363228203493</v>
+      </c>
+      <c r="G12">
+        <v>0.004818975802152381</v>
+      </c>
+      <c r="H12">
+        <v>-0.0211792365912328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01010489568724398</v>
+        <v>-0.02008198065357958</v>
       </c>
       <c r="C13">
-        <v>0.02020015892492287</v>
+        <v>0.0142429213975409</v>
       </c>
       <c r="D13">
-        <v>0.01717572894053532</v>
+        <v>0.02899061325376742</v>
       </c>
       <c r="E13">
-        <v>0.009703276485159769</v>
+        <v>-0.01250139927851105</v>
       </c>
       <c r="F13">
-        <v>-0.0779178491074667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.01669918869846933</v>
+      </c>
+      <c r="G13">
+        <v>0.0565495658438914</v>
+      </c>
+      <c r="H13">
+        <v>-0.07400648020684987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0192152144883041</v>
+        <v>-0.009337514929211687</v>
       </c>
       <c r="C14">
-        <v>-0.003937685699092518</v>
+        <v>0.00214155197782674</v>
       </c>
       <c r="D14">
-        <v>0.02626410007195437</v>
+        <v>0.01964066912704842</v>
       </c>
       <c r="E14">
-        <v>0.01669484015915515</v>
+        <v>0.01397941655659016</v>
       </c>
       <c r="F14">
-        <v>-0.05142781760726213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.00566957209606099</v>
+      </c>
+      <c r="G14">
+        <v>0.04095328108614296</v>
+      </c>
+      <c r="H14">
+        <v>-0.009831907867111953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03063045862292751</v>
+        <v>-0.01745256635769505</v>
       </c>
       <c r="C16">
-        <v>0.02135174359900142</v>
+        <v>-0.009498834118463495</v>
       </c>
       <c r="D16">
-        <v>0.04484732078578328</v>
+        <v>0.04316126257975637</v>
       </c>
       <c r="E16">
-        <v>0.01448956315000126</v>
+        <v>0.002146813628764939</v>
       </c>
       <c r="F16">
-        <v>-0.02694018057553099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01257159782322328</v>
+      </c>
+      <c r="G16">
+        <v>0.01826015156815703</v>
+      </c>
+      <c r="H16">
+        <v>-0.03858458837827002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03244979878530502</v>
+        <v>-0.01806057112460661</v>
       </c>
       <c r="C19">
-        <v>0.01636319985997873</v>
+        <v>0.001746227528732853</v>
       </c>
       <c r="D19">
-        <v>0.05958819119763937</v>
+        <v>0.04730705537212083</v>
       </c>
       <c r="E19">
-        <v>0.02881798145118461</v>
+        <v>0.01054901658780019</v>
       </c>
       <c r="F19">
-        <v>-0.08004939554738032</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.01944884390227516</v>
+      </c>
+      <c r="G19">
+        <v>0.05680947629466725</v>
+      </c>
+      <c r="H19">
+        <v>-0.05387803893593709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002041843037116174</v>
+        <v>-0.004591609352507156</v>
       </c>
       <c r="C20">
-        <v>-0.007443057414661909</v>
+        <v>0.005885437329216672</v>
       </c>
       <c r="D20">
-        <v>0.01185669400586878</v>
+        <v>0.02426026193068066</v>
       </c>
       <c r="E20">
-        <v>0.01444010154030181</v>
+        <v>0.003979880995904731</v>
       </c>
       <c r="F20">
-        <v>-0.06341589889450851</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.007758842244265258</v>
+      </c>
+      <c r="G20">
+        <v>0.04971786671987242</v>
+      </c>
+      <c r="H20">
+        <v>-0.02903754482969337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01401549877099698</v>
+        <v>-0.01226758661547414</v>
       </c>
       <c r="C21">
-        <v>-0.01707727898689391</v>
+        <v>0.007689905784554051</v>
       </c>
       <c r="D21">
-        <v>0.03944832602321095</v>
+        <v>0.02346569086078176</v>
       </c>
       <c r="E21">
-        <v>-0.00334894388787111</v>
+        <v>0.01711333195899592</v>
       </c>
       <c r="F21">
-        <v>-0.02622715232854088</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.001879790757405567</v>
+      </c>
+      <c r="G21">
+        <v>0.04192215080139968</v>
+      </c>
+      <c r="H21">
+        <v>-0.04875177056238631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02838198506751156</v>
+        <v>-0.0127717293634829</v>
       </c>
       <c r="C24">
-        <v>0.01942961424544628</v>
+        <v>-0.004070480124716946</v>
       </c>
       <c r="D24">
-        <v>0.02509630143640605</v>
+        <v>0.04400531457517612</v>
       </c>
       <c r="E24">
-        <v>0.01346897813786825</v>
+        <v>0.0004577418471147126</v>
       </c>
       <c r="F24">
-        <v>-0.03062092420989636</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.008700541515530772</v>
+      </c>
+      <c r="G24">
+        <v>0.01348471397297973</v>
+      </c>
+      <c r="H24">
+        <v>-0.04655325679515414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03230040942366146</v>
+        <v>-0.02652626516568908</v>
       </c>
       <c r="C25">
-        <v>0.01755593883626984</v>
+        <v>-0.002135402870816916</v>
       </c>
       <c r="D25">
-        <v>0.03774028184014706</v>
+        <v>0.0484579462427868</v>
       </c>
       <c r="E25">
-        <v>0.008849837191058049</v>
+        <v>0.006658386308030313</v>
       </c>
       <c r="F25">
-        <v>-0.03247527332858573</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01762377374074165</v>
+      </c>
+      <c r="G25">
+        <v>0.01552503070077744</v>
+      </c>
+      <c r="H25">
+        <v>-0.04686488558772912</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01701237989146064</v>
+        <v>-0.01215922186335651</v>
       </c>
       <c r="C26">
-        <v>0.01114846365651341</v>
+        <v>0.01935596344057003</v>
       </c>
       <c r="D26">
-        <v>0.02239090578002391</v>
+        <v>0.01212902091490144</v>
       </c>
       <c r="E26">
-        <v>-0.006446747105285685</v>
+        <v>-3.93971409577762e-05</v>
       </c>
       <c r="F26">
-        <v>-0.05093306282880955</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.00190429189762094</v>
+      </c>
+      <c r="G26">
+        <v>0.02469082780834479</v>
+      </c>
+      <c r="H26">
+        <v>-0.02050505847384688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.038064515561201</v>
+        <v>-0.01404814130114651</v>
       </c>
       <c r="C27">
-        <v>0.01790747733049353</v>
+        <v>-0.005392851658401727</v>
       </c>
       <c r="D27">
-        <v>0.01383093030541078</v>
+        <v>0.01489361728775035</v>
       </c>
       <c r="E27">
-        <v>0.03028684282593625</v>
+        <v>0.005849332949327446</v>
       </c>
       <c r="F27">
-        <v>-0.01898314714169535</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.006483655168435279</v>
+      </c>
+      <c r="G27">
+        <v>0.009174669200410763</v>
+      </c>
+      <c r="H27">
+        <v>0.001396041751659476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07206929255655162</v>
+        <v>-0.1870350878112532</v>
       </c>
       <c r="C28">
-        <v>0.004554073267195643</v>
+        <v>0.007007193586480314</v>
       </c>
       <c r="D28">
-        <v>-0.217550342319342</v>
+        <v>-0.1902501345582182</v>
       </c>
       <c r="E28">
-        <v>-0.0528547009660446</v>
+        <v>0.01047380064829631</v>
       </c>
       <c r="F28">
-        <v>-0.06919836314235843</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03842740949889296</v>
+      </c>
+      <c r="G28">
+        <v>0.0185696033517591</v>
+      </c>
+      <c r="H28">
+        <v>0.008825419229749935</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02085786245931764</v>
+        <v>-0.0147421183390558</v>
       </c>
       <c r="C29">
-        <v>-0.002819773537827292</v>
+        <v>0.0008180530761049063</v>
       </c>
       <c r="D29">
-        <v>0.03138861593424115</v>
+        <v>0.0194658370114621</v>
       </c>
       <c r="E29">
-        <v>0.01743950706917535</v>
+        <v>0.01295808237762304</v>
       </c>
       <c r="F29">
-        <v>-0.04881725908157509</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.006151172673799736</v>
+      </c>
+      <c r="G29">
+        <v>0.04051561668622887</v>
+      </c>
+      <c r="H29">
+        <v>-0.006319882941752055</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.05219451350353329</v>
+        <v>-0.03517005718052049</v>
       </c>
       <c r="C30">
-        <v>0.07272532961241077</v>
+        <v>0.003682745655721456</v>
       </c>
       <c r="D30">
-        <v>0.06494280238988905</v>
+        <v>0.09728691944731062</v>
       </c>
       <c r="E30">
-        <v>0.03373048875979068</v>
+        <v>-0.03163624312950727</v>
       </c>
       <c r="F30">
-        <v>-0.07869491058727963</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.03978696085577577</v>
+      </c>
+      <c r="G30">
+        <v>0.05564661770601818</v>
+      </c>
+      <c r="H30">
+        <v>-0.07280751586092708</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05389219982237639</v>
+        <v>-0.04375836583105229</v>
       </c>
       <c r="C31">
-        <v>0.03538677248552079</v>
+        <v>-0.008186514395593061</v>
       </c>
       <c r="D31">
-        <v>0.02731846119411413</v>
+        <v>0.03303795189563161</v>
       </c>
       <c r="E31">
-        <v>0.01572969310889052</v>
+        <v>-0.002154503234825472</v>
       </c>
       <c r="F31">
-        <v>-0.03156406342219797</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.0004006431301454137</v>
+      </c>
+      <c r="G31">
+        <v>0.01850137315897919</v>
+      </c>
+      <c r="H31">
+        <v>-0.003176740778965582</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02287593815913379</v>
+        <v>-0.007877732529596067</v>
       </c>
       <c r="C32">
-        <v>-0.01454773985687782</v>
+        <v>-0.01269174291827189</v>
       </c>
       <c r="D32">
-        <v>0.06454547010458793</v>
+        <v>0.01477897507939625</v>
       </c>
       <c r="E32">
-        <v>0.02732929910787731</v>
+        <v>0.03058374511399793</v>
       </c>
       <c r="F32">
-        <v>-0.04055417875315966</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03189149225124265</v>
+      </c>
+      <c r="G32">
+        <v>0.04125780202806643</v>
+      </c>
+      <c r="H32">
+        <v>-0.04686568155683855</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03165003790997144</v>
+        <v>-0.0217597094847583</v>
       </c>
       <c r="C33">
-        <v>0.04190417293696089</v>
+        <v>0.001112225699933466</v>
       </c>
       <c r="D33">
-        <v>0.05637912130580749</v>
+        <v>0.04989315941290527</v>
       </c>
       <c r="E33">
-        <v>-0.003984353259556698</v>
+        <v>-0.01983529327163149</v>
       </c>
       <c r="F33">
-        <v>-0.06008689904819615</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.004377368858062993</v>
+      </c>
+      <c r="G33">
+        <v>0.03963785168346306</v>
+      </c>
+      <c r="H33">
+        <v>-0.05088044990861638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0346706850097005</v>
+        <v>-0.024014392487185</v>
       </c>
       <c r="C34">
-        <v>0.01328027700614753</v>
+        <v>-0.01843387290805265</v>
       </c>
       <c r="D34">
-        <v>0.04674372440880482</v>
+        <v>0.04840661616003687</v>
       </c>
       <c r="E34">
-        <v>0.02479052834235482</v>
+        <v>0.01393253050434543</v>
       </c>
       <c r="F34">
-        <v>-0.02927085539190877</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01864462198266751</v>
+      </c>
+      <c r="G34">
+        <v>0.008538173487279054</v>
+      </c>
+      <c r="H34">
+        <v>-0.03782428449113185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01700864213847476</v>
+        <v>-0.01577512472568428</v>
       </c>
       <c r="C36">
-        <v>-0.0005353331504075109</v>
+        <v>0.006992731252436226</v>
       </c>
       <c r="D36">
-        <v>0.01730631572613478</v>
+        <v>0.007261038697708497</v>
       </c>
       <c r="E36">
-        <v>0.007027238863879251</v>
+        <v>0.007819047862035803</v>
       </c>
       <c r="F36">
-        <v>-0.02708196341254116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.001303019056947543</v>
+      </c>
+      <c r="G36">
+        <v>0.0177479301400688</v>
+      </c>
+      <c r="H36">
+        <v>-0.01623012737878614</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.009052164066479976</v>
+        <v>-0.02529669123555608</v>
       </c>
       <c r="C38">
-        <v>0.005657751980862926</v>
+        <v>-0.01495632361783881</v>
       </c>
       <c r="D38">
-        <v>0.002494975734935522</v>
+        <v>0.0166035513719763</v>
       </c>
       <c r="E38">
-        <v>-0.01867211086363152</v>
+        <v>1.247525931373102e-05</v>
       </c>
       <c r="F38">
-        <v>-0.04313662177909955</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.006586542166158057</v>
+      </c>
+      <c r="G38">
+        <v>0.02189030751529892</v>
+      </c>
+      <c r="H38">
+        <v>-0.03584688137278837</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02759063691652663</v>
+        <v>-0.005796919423545762</v>
       </c>
       <c r="C39">
-        <v>0.02009112973674476</v>
+        <v>-0.006140404078485373</v>
       </c>
       <c r="D39">
-        <v>0.06435896722349825</v>
+        <v>0.08900513822434115</v>
       </c>
       <c r="E39">
-        <v>0.01225641578819292</v>
+        <v>-0.006565140735381701</v>
       </c>
       <c r="F39">
-        <v>-0.04522111143651137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01543932449665122</v>
+      </c>
+      <c r="G39">
+        <v>0.02993916393397039</v>
+      </c>
+      <c r="H39">
+        <v>-0.08125658212929164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01869936739120903</v>
+        <v>-0.02545034934943497</v>
       </c>
       <c r="C40">
-        <v>0.04853821289706373</v>
+        <v>0.0004007380691134358</v>
       </c>
       <c r="D40">
-        <v>0.03311966002073551</v>
+        <v>0.03488921330494568</v>
       </c>
       <c r="E40">
-        <v>0.02995169263309756</v>
+        <v>-0.02327202407423489</v>
       </c>
       <c r="F40">
-        <v>-0.04915478188636874</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03389948461419369</v>
+      </c>
+      <c r="G40">
+        <v>0.01709756536239395</v>
+      </c>
+      <c r="H40">
+        <v>-0.06302676883142941</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.004449278141222126</v>
+        <v>-0.01238744676291745</v>
       </c>
       <c r="C41">
-        <v>-0.001676346971026077</v>
+        <v>0.002959333478714058</v>
       </c>
       <c r="D41">
-        <v>0.007358065309707834</v>
+        <v>-0.009477067609135737</v>
       </c>
       <c r="E41">
-        <v>-0.01295321079634159</v>
+        <v>0.003940771845740224</v>
       </c>
       <c r="F41">
-        <v>-0.005900387054456119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.006679031312211039</v>
+      </c>
+      <c r="G41">
+        <v>-0.0009597899794751617</v>
+      </c>
+      <c r="H41">
+        <v>0.003770844988505412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2441424394031254</v>
+        <v>-0.1179602828925152</v>
       </c>
       <c r="C42">
-        <v>0.2134584310698313</v>
+        <v>0.07898588673087469</v>
       </c>
       <c r="D42">
-        <v>0.1088703106636008</v>
+        <v>0.2448973052827137</v>
       </c>
       <c r="E42">
-        <v>-0.8777216585202617</v>
+        <v>-0.2355620719646393</v>
       </c>
       <c r="F42">
-        <v>0.2481274893905364</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8461949917490397</v>
+      </c>
+      <c r="G42">
+        <v>-0.3549189693954702</v>
+      </c>
+      <c r="H42">
+        <v>-0.03768809054166665</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.002929158709191161</v>
+        <v>-0.01374523712739511</v>
       </c>
       <c r="C43">
-        <v>0.00157228119810493</v>
+        <v>0.003521765997401366</v>
       </c>
       <c r="D43">
-        <v>0.01085261678238923</v>
+        <v>-0.008753879920519353</v>
       </c>
       <c r="E43">
-        <v>-0.007137942366403394</v>
+        <v>0.0002046993425753659</v>
       </c>
       <c r="F43">
-        <v>-0.02337378761239321</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.006133395028833113</v>
+      </c>
+      <c r="G43">
+        <v>0.00169084914916586</v>
+      </c>
+      <c r="H43">
+        <v>-0.004138563297032789</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02342919028995833</v>
+        <v>-0.01240298461814351</v>
       </c>
       <c r="C44">
-        <v>-0.003897559377296992</v>
+        <v>-0.004939126426189829</v>
       </c>
       <c r="D44">
-        <v>0.04175848674121534</v>
+        <v>0.04423986586185924</v>
       </c>
       <c r="E44">
-        <v>-0.004130603260963803</v>
+        <v>0.01306262307455265</v>
       </c>
       <c r="F44">
-        <v>-0.09444373800854745</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.005906378844893066</v>
+      </c>
+      <c r="G44">
+        <v>0.03855280957151971</v>
+      </c>
+      <c r="H44">
+        <v>-0.06199445993890474</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01869385052965984</v>
+        <v>-0.00713649497412656</v>
       </c>
       <c r="C46">
-        <v>0.008378519544804834</v>
+        <v>0.006722675784761991</v>
       </c>
       <c r="D46">
-        <v>0.06430565599887179</v>
+        <v>0.01690301172219437</v>
       </c>
       <c r="E46">
-        <v>0.01660761666654934</v>
+        <v>0.001804374361727972</v>
       </c>
       <c r="F46">
-        <v>-0.05994506195110923</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.0005813446013222486</v>
+      </c>
+      <c r="G46">
+        <v>0.04208389108148423</v>
+      </c>
+      <c r="H46">
+        <v>-0.008689179394212975</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.08290229966217913</v>
+        <v>-0.05920943540792624</v>
       </c>
       <c r="C47">
-        <v>0.04749377653366469</v>
+        <v>-0.02299959320167751</v>
       </c>
       <c r="D47">
-        <v>0.01841201415764338</v>
+        <v>0.0625294669191909</v>
       </c>
       <c r="E47">
-        <v>0.02562681437692374</v>
+        <v>0.005783859480077317</v>
       </c>
       <c r="F47">
-        <v>-0.007106131778267803</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.008458014963839565</v>
+      </c>
+      <c r="G47">
+        <v>-0.002927547185933718</v>
+      </c>
+      <c r="H47">
+        <v>0.02949346403078888</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01745235490132999</v>
+        <v>-0.01739555599135646</v>
       </c>
       <c r="C48">
-        <v>0.01019064086532022</v>
+        <v>-0.004198013433008898</v>
       </c>
       <c r="D48">
-        <v>0.02450252190842068</v>
+        <v>0.01563347223196826</v>
       </c>
       <c r="E48">
-        <v>0.006079110244003468</v>
+        <v>0.001063848030115591</v>
       </c>
       <c r="F48">
-        <v>-0.03299040739593868</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.003846104619395781</v>
+      </c>
+      <c r="G48">
+        <v>0.01789946965160052</v>
+      </c>
+      <c r="H48">
+        <v>-0.0198112234845168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08388092952963103</v>
+        <v>-0.06263399416951716</v>
       </c>
       <c r="C50">
-        <v>0.03024451099428706</v>
+        <v>-0.02096731762087061</v>
       </c>
       <c r="D50">
-        <v>0.03999002298785345</v>
+        <v>0.059408676716916</v>
       </c>
       <c r="E50">
-        <v>0.01635927446067457</v>
+        <v>0.01698480864819654</v>
       </c>
       <c r="F50">
-        <v>-0.01882238512812519</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.003011802066153054</v>
+      </c>
+      <c r="G50">
+        <v>0.007271406058619313</v>
+      </c>
+      <c r="H50">
+        <v>0.01622115280694491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.0193812675363546</v>
+        <v>-0.01583592124848552</v>
       </c>
       <c r="C51">
-        <v>0.004452902332048673</v>
+        <v>0.001944021267565869</v>
       </c>
       <c r="D51">
-        <v>0.003789334798362782</v>
+        <v>0.01230447138258903</v>
       </c>
       <c r="E51">
-        <v>0.00326917728828266</v>
+        <v>0.008024984398339246</v>
       </c>
       <c r="F51">
-        <v>-0.08459519216657486</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.0005552282572241187</v>
+      </c>
+      <c r="G51">
+        <v>0.03302407418283206</v>
+      </c>
+      <c r="H51">
+        <v>-0.04370419637691055</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09051906639013674</v>
+        <v>-0.07708864572916847</v>
       </c>
       <c r="C53">
-        <v>0.05116632090980502</v>
+        <v>-0.03076443911672278</v>
       </c>
       <c r="D53">
-        <v>0.0396125056715994</v>
+        <v>0.09776499268967603</v>
       </c>
       <c r="E53">
-        <v>0.03609213374700503</v>
+        <v>0.0103659682029379</v>
       </c>
       <c r="F53">
-        <v>0.03927614178380777</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02961670560531706</v>
+      </c>
+      <c r="G53">
+        <v>-0.02799602250629427</v>
+      </c>
+      <c r="H53">
+        <v>0.03095259483805597</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.022165556037607</v>
+        <v>-0.02420120190195399</v>
       </c>
       <c r="C54">
-        <v>0.0005744066580100205</v>
+        <v>-0.006433862749489869</v>
       </c>
       <c r="D54">
-        <v>0.008367179231461129</v>
+        <v>-0.005568715643288163</v>
       </c>
       <c r="E54">
-        <v>0.009624234315669606</v>
+        <v>0.00633784430655764</v>
       </c>
       <c r="F54">
-        <v>-0.03129781612962691</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.00531553515310203</v>
+      </c>
+      <c r="G54">
+        <v>0.03902736534515108</v>
+      </c>
+      <c r="H54">
+        <v>-0.0003408059118193107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08620140861445542</v>
+        <v>-0.05896512310297454</v>
       </c>
       <c r="C55">
-        <v>0.04618563234039248</v>
+        <v>-0.02675647599917916</v>
       </c>
       <c r="D55">
-        <v>0.04938624133415315</v>
+        <v>0.09017686340140608</v>
       </c>
       <c r="E55">
-        <v>0.02607957901253325</v>
+        <v>0.009033669653137193</v>
       </c>
       <c r="F55">
-        <v>0.03929577542769722</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01736480526590785</v>
+      </c>
+      <c r="G55">
+        <v>-0.01003069258621223</v>
+      </c>
+      <c r="H55">
+        <v>0.04044532484441335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1280993438570147</v>
+        <v>-0.101685453597613</v>
       </c>
       <c r="C56">
-        <v>0.07801886590445128</v>
+        <v>-0.04565908002900616</v>
       </c>
       <c r="D56">
-        <v>0.03174101972664119</v>
+        <v>0.1246829064293316</v>
       </c>
       <c r="E56">
-        <v>0.0771307210148026</v>
+        <v>0.01004953242419155</v>
       </c>
       <c r="F56">
-        <v>0.07312892836191362</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05479413559829195</v>
+      </c>
+      <c r="G56">
+        <v>-0.05368857695594301</v>
+      </c>
+      <c r="H56">
+        <v>0.06870984568151244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04039180744603536</v>
+        <v>-0.02833607055724502</v>
       </c>
       <c r="C57">
-        <v>0.03351463223406077</v>
+        <v>0.01386045130085189</v>
       </c>
       <c r="D57">
-        <v>0.02018767645118941</v>
+        <v>0.039342436573324</v>
       </c>
       <c r="E57">
-        <v>-0.009834276180110057</v>
+        <v>-0.01059629171460357</v>
       </c>
       <c r="F57">
-        <v>-0.0504972450062904</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.003138819681933345</v>
+      </c>
+      <c r="G57">
+        <v>0.06459913325921865</v>
+      </c>
+      <c r="H57">
+        <v>-0.05345093773901299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.148536367734835</v>
+        <v>-0.1009612296850167</v>
       </c>
       <c r="C58">
-        <v>0.2019747506017481</v>
+        <v>-0.03512643406473684</v>
       </c>
       <c r="D58">
-        <v>0.2215667649651669</v>
+        <v>0.1842634144691847</v>
       </c>
       <c r="E58">
-        <v>-0.001967256547229364</v>
+        <v>-0.2861246251137474</v>
       </c>
       <c r="F58">
-        <v>-0.5183098630217298</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2128089916205841</v>
+      </c>
+      <c r="G58">
+        <v>0.8013126154130489</v>
+      </c>
+      <c r="H58">
+        <v>0.3188847571760375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05436106333097881</v>
+        <v>-0.1997478343951465</v>
       </c>
       <c r="C59">
-        <v>0.02658769121938676</v>
+        <v>-0.002159707489839062</v>
       </c>
       <c r="D59">
-        <v>-0.1824770180658421</v>
+        <v>-0.1843710906373989</v>
       </c>
       <c r="E59">
-        <v>-0.01326428575433844</v>
+        <v>-0.007780593028858794</v>
       </c>
       <c r="F59">
-        <v>-0.0929998395055785</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.004668736100921757</v>
+      </c>
+      <c r="G59">
+        <v>0.02077779482992715</v>
+      </c>
+      <c r="H59">
+        <v>-0.01816011975822715</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1341719022082185</v>
+        <v>-0.2075655761783727</v>
       </c>
       <c r="C60">
-        <v>0.1109544720386546</v>
+        <v>-0.02340308985657348</v>
       </c>
       <c r="D60">
-        <v>-0.00246716546078641</v>
+        <v>0.04938433610269224</v>
       </c>
       <c r="E60">
-        <v>-0.01839509730414291</v>
+        <v>-0.05136289640991074</v>
       </c>
       <c r="F60">
-        <v>-0.1614044980334494</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.07722039180800536</v>
+      </c>
+      <c r="G60">
+        <v>0.01903584017279716</v>
+      </c>
+      <c r="H60">
+        <v>-0.3745348847826387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0197698382434152</v>
+        <v>-0.01355439884234253</v>
       </c>
       <c r="C61">
-        <v>0.009842738597266086</v>
+        <v>-0.009033265930548385</v>
       </c>
       <c r="D61">
-        <v>0.0463352763913856</v>
+        <v>0.05998452366563038</v>
       </c>
       <c r="E61">
-        <v>0.003972311897165963</v>
+        <v>0.003107388795495382</v>
       </c>
       <c r="F61">
-        <v>-0.01613267219082794</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.01888231698188512</v>
+      </c>
+      <c r="G61">
+        <v>0.02164689100862486</v>
+      </c>
+      <c r="H61">
+        <v>-0.0590186766065581</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01109503230564094</v>
+        <v>-0.006071228882842396</v>
       </c>
       <c r="C63">
-        <v>0.004710741145541309</v>
+        <v>0.002788891872219449</v>
       </c>
       <c r="D63">
-        <v>0.03301247751814049</v>
+        <v>0.02488628309980115</v>
       </c>
       <c r="E63">
-        <v>0.002387742526931835</v>
+        <v>0.006607802774807089</v>
       </c>
       <c r="F63">
-        <v>-0.008425662966315327</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.005955871868523846</v>
+      </c>
+      <c r="G63">
+        <v>0.01620144336914014</v>
+      </c>
+      <c r="H63">
+        <v>-0.01214457630391314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03292630195727743</v>
+        <v>-0.0352602806916141</v>
       </c>
       <c r="C64">
-        <v>0.0002872369913785725</v>
+        <v>-0.007363877998763499</v>
       </c>
       <c r="D64">
-        <v>0.03602540002009291</v>
+        <v>0.041478099184231</v>
       </c>
       <c r="E64">
-        <v>0.01316432955611861</v>
+        <v>0.01596568683903874</v>
       </c>
       <c r="F64">
-        <v>-0.02270405684611508</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.004941214681303525</v>
+      </c>
+      <c r="G64">
+        <v>-0.009415915777551217</v>
+      </c>
+      <c r="H64">
+        <v>-0.04970274449351498</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03590136394873261</v>
+        <v>-0.03596544083702727</v>
       </c>
       <c r="C65">
-        <v>0.01311908760443752</v>
+        <v>-0.002004619208914318</v>
       </c>
       <c r="D65">
-        <v>0.04021514591729614</v>
+        <v>0.07878854546748602</v>
       </c>
       <c r="E65">
-        <v>0.01982943977392464</v>
+        <v>0.007944343550380499</v>
       </c>
       <c r="F65">
-        <v>-0.001895431478399806</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04512503750363878</v>
+      </c>
+      <c r="G65">
+        <v>-0.0008720754379410565</v>
+      </c>
+      <c r="H65">
+        <v>-0.07041552020243855</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03236387118043155</v>
+        <v>-0.01458283051812282</v>
       </c>
       <c r="C66">
-        <v>0.0303914581235485</v>
+        <v>-0.01336464046684321</v>
       </c>
       <c r="D66">
-        <v>0.07222746223337394</v>
+        <v>0.1123094412508285</v>
       </c>
       <c r="E66">
-        <v>0.03211277573584149</v>
+        <v>-0.007397156417881846</v>
       </c>
       <c r="F66">
-        <v>-0.02844279460741297</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03783514506581675</v>
+      </c>
+      <c r="G66">
+        <v>0.02898573209104737</v>
+      </c>
+      <c r="H66">
+        <v>-0.08473751358501043</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01989971966535326</v>
+        <v>-0.0465098414571892</v>
       </c>
       <c r="C67">
-        <v>0.01579807025019191</v>
+        <v>-0.01663118267582094</v>
       </c>
       <c r="D67">
-        <v>-0.006856129853095414</v>
+        <v>0.02264517968292187</v>
       </c>
       <c r="E67">
-        <v>-0.007589791019704831</v>
+        <v>-0.001237172535576697</v>
       </c>
       <c r="F67">
-        <v>-0.02521460112266812</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01904680194561464</v>
+      </c>
+      <c r="G67">
+        <v>0.01351602010345634</v>
+      </c>
+      <c r="H67">
+        <v>-0.03363820723867678</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0676898305971253</v>
+        <v>-0.2025832268689221</v>
       </c>
       <c r="C68">
-        <v>0.0224793368084839</v>
+        <v>0.02119623896528906</v>
       </c>
       <c r="D68">
-        <v>-0.2134035704584217</v>
+        <v>-0.208934987345855</v>
       </c>
       <c r="E68">
-        <v>-0.02475499269840649</v>
+        <v>-0.01017989769139793</v>
       </c>
       <c r="F68">
-        <v>-0.08169435247065372</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.04566076487433097</v>
+      </c>
+      <c r="G68">
+        <v>0.02730941253181464</v>
+      </c>
+      <c r="H68">
+        <v>0.04398085928477653</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05931933472294673</v>
+        <v>-0.05780504842448396</v>
       </c>
       <c r="C69">
-        <v>0.03678458423268931</v>
+        <v>-0.02582559569258261</v>
       </c>
       <c r="D69">
-        <v>0.02126944340459042</v>
+        <v>0.0538288289513945</v>
       </c>
       <c r="E69">
-        <v>0.03370396294280605</v>
+        <v>0.005423554756536914</v>
       </c>
       <c r="F69">
-        <v>-0.007752096664501992</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02842627135713153</v>
+      </c>
+      <c r="G69">
+        <v>-0.00792973823126906</v>
+      </c>
+      <c r="H69">
+        <v>-0.007900392676017456</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07663037314764973</v>
+        <v>-0.1810057341801976</v>
       </c>
       <c r="C71">
-        <v>0.03291296725699532</v>
+        <v>0.009130751891316362</v>
       </c>
       <c r="D71">
-        <v>-0.2166048715508444</v>
+        <v>-0.1661753553042461</v>
       </c>
       <c r="E71">
-        <v>-0.05697435968265628</v>
+        <v>-0.01480213835213097</v>
       </c>
       <c r="F71">
-        <v>-0.09080912756062702</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.05609899042698917</v>
+      </c>
+      <c r="G71">
+        <v>0.03315910618742705</v>
+      </c>
+      <c r="H71">
+        <v>0.0237938281903574</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09678889744159463</v>
+        <v>-0.05924148349228605</v>
       </c>
       <c r="C72">
-        <v>0.07462295397221974</v>
+        <v>-0.03441867959661973</v>
       </c>
       <c r="D72">
-        <v>0.08028760469642687</v>
+        <v>0.09804893180112247</v>
       </c>
       <c r="E72">
-        <v>0.07681104499869976</v>
+        <v>-0.01361049606742248</v>
       </c>
       <c r="F72">
-        <v>-0.06816144980857082</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.07064273409016368</v>
+      </c>
+      <c r="G72">
+        <v>0.02661512930995633</v>
+      </c>
+      <c r="H72">
+        <v>-0.1048174309598026</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1753408747197971</v>
+        <v>-0.2701558054797322</v>
       </c>
       <c r="C73">
-        <v>0.1791882048199949</v>
+        <v>-0.03418830685128532</v>
       </c>
       <c r="D73">
-        <v>-0.02199360802892356</v>
+        <v>0.1190243344857002</v>
       </c>
       <c r="E73">
-        <v>-0.04332585563876383</v>
+        <v>-0.09183236256831219</v>
       </c>
       <c r="F73">
-        <v>-0.2055721796890691</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.09143117325369475</v>
+      </c>
+      <c r="G73">
+        <v>0.02935590290460073</v>
+      </c>
+      <c r="H73">
+        <v>-0.4846262446029279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1196813389986888</v>
+        <v>-0.1010892110744335</v>
       </c>
       <c r="C74">
-        <v>0.07134923812171343</v>
+        <v>-0.04558061977818105</v>
       </c>
       <c r="D74">
-        <v>0.03171020821082046</v>
+        <v>0.1276550943916606</v>
       </c>
       <c r="E74">
-        <v>0.04666451020006195</v>
+        <v>0.01271368508783639</v>
       </c>
       <c r="F74">
-        <v>0.07526465595673408</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.04195177076490693</v>
+      </c>
+      <c r="G74">
+        <v>-0.03611396042057543</v>
+      </c>
+      <c r="H74">
+        <v>0.035409207752587</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2061577215252014</v>
+        <v>-0.199785245775792</v>
       </c>
       <c r="C75">
-        <v>0.1395078475793705</v>
+        <v>-0.08443590342454348</v>
       </c>
       <c r="D75">
-        <v>0.0364013990861887</v>
+        <v>0.2024924622184748</v>
       </c>
       <c r="E75">
-        <v>0.1498570706908539</v>
+        <v>0.008753426697971798</v>
       </c>
       <c r="F75">
-        <v>0.1187665440830236</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1006947430606303</v>
+      </c>
+      <c r="G75">
+        <v>-0.09440956136926472</v>
+      </c>
+      <c r="H75">
+        <v>0.1474820681842756</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2514420080533708</v>
+        <v>-0.1602931496548334</v>
       </c>
       <c r="C76">
-        <v>0.1234367556493021</v>
+        <v>-0.07644892071311069</v>
       </c>
       <c r="D76">
-        <v>0.0441913435334302</v>
+        <v>0.1890555884165857</v>
       </c>
       <c r="E76">
-        <v>0.1702677444339118</v>
+        <v>0.04713532895846279</v>
       </c>
       <c r="F76">
-        <v>0.2072770683789164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.08707912957447168</v>
+      </c>
+      <c r="G76">
+        <v>-0.08411556649334052</v>
+      </c>
+      <c r="H76">
+        <v>0.1258802686759315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09829769587086294</v>
+        <v>-0.05354804716606018</v>
       </c>
       <c r="C77">
-        <v>0.0736446675450159</v>
+        <v>-0.008386505651472757</v>
       </c>
       <c r="D77">
-        <v>0.1165340734697768</v>
+        <v>0.09245958876307317</v>
       </c>
       <c r="E77">
-        <v>-0.04436173594497028</v>
+        <v>-0.01919871154099183</v>
       </c>
       <c r="F77">
-        <v>-0.1305897178135975</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.02859468307216273</v>
+      </c>
+      <c r="G77">
+        <v>0.06846740521794599</v>
+      </c>
+      <c r="H77">
+        <v>-0.0265468772268929</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06036545944211597</v>
+        <v>-0.02727231886952971</v>
       </c>
       <c r="C78">
-        <v>0.02907185471807005</v>
+        <v>-0.01147089976075548</v>
       </c>
       <c r="D78">
-        <v>0.1243025389884199</v>
+        <v>0.07845316223799012</v>
       </c>
       <c r="E78">
-        <v>0.01529071581763472</v>
+        <v>0.005688461374758452</v>
       </c>
       <c r="F78">
-        <v>-0.07507060399166997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01478656943079491</v>
+      </c>
+      <c r="G78">
+        <v>0.05499028604077054</v>
+      </c>
+      <c r="H78">
+        <v>-0.09338698772355887</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.5658982602960972</v>
+        <v>-0.1126523486628491</v>
       </c>
       <c r="C80">
-        <v>-0.8050738779068906</v>
+        <v>-0.02480681875303122</v>
       </c>
       <c r="D80">
-        <v>0.06749866461035381</v>
+        <v>0.1055528787883742</v>
       </c>
       <c r="E80">
-        <v>-0.04999717726609549</v>
+        <v>0.9084945264622755</v>
       </c>
       <c r="F80">
-        <v>-0.04175089047752637</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.2893324264642489</v>
+      </c>
+      <c r="G80">
+        <v>0.1802640388102636</v>
+      </c>
+      <c r="H80">
+        <v>-0.01842140085091603</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1619908430781513</v>
+        <v>-0.132397320996299</v>
       </c>
       <c r="C81">
-        <v>0.0949136429889517</v>
+        <v>-0.05378117521474287</v>
       </c>
       <c r="D81">
-        <v>0.02011513356160223</v>
+        <v>0.1291441636735414</v>
       </c>
       <c r="E81">
-        <v>0.1188720650621431</v>
+        <v>0.01632891921918348</v>
       </c>
       <c r="F81">
-        <v>0.1170493676313339</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.06149832616412048</v>
+      </c>
+      <c r="G81">
+        <v>-0.05615515140766893</v>
+      </c>
+      <c r="H81">
+        <v>0.07975795254460973</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03104121075118937</v>
+        <v>-0.0288700892890695</v>
       </c>
       <c r="C83">
-        <v>0.02623960574700078</v>
+        <v>-0.003839181503673352</v>
       </c>
       <c r="D83">
-        <v>0.03015701006670959</v>
+        <v>0.0287826491300924</v>
       </c>
       <c r="E83">
-        <v>-0.01269572591822318</v>
+        <v>-0.007355128533572797</v>
       </c>
       <c r="F83">
-        <v>-0.05798054745232181</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.0001147099346805947</v>
+      </c>
+      <c r="G83">
+        <v>0.0385835580999013</v>
+      </c>
+      <c r="H83">
+        <v>-0.04357937208190767</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2281969745583109</v>
+        <v>-0.1896925710173014</v>
       </c>
       <c r="C85">
-        <v>0.138083697200034</v>
+        <v>-0.07043645762836419</v>
       </c>
       <c r="D85">
-        <v>0.03792178598131267</v>
+        <v>0.2063790795884781</v>
       </c>
       <c r="E85">
-        <v>0.1300465758436622</v>
+        <v>0.008474719538229515</v>
       </c>
       <c r="F85">
-        <v>0.154001309776481</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.09286508291392884</v>
+      </c>
+      <c r="G85">
+        <v>-0.1236710636641158</v>
+      </c>
+      <c r="H85">
+        <v>0.07305572808371555</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.007248264594799938</v>
+        <v>-0.01440261674268885</v>
       </c>
       <c r="C86">
-        <v>-0.002335025657586704</v>
+        <v>-0.001266253197828717</v>
       </c>
       <c r="D86">
-        <v>0.0805516158181936</v>
+        <v>0.04035365138995783</v>
       </c>
       <c r="E86">
-        <v>-0.007474733629809009</v>
+        <v>0.006515788746233895</v>
       </c>
       <c r="F86">
-        <v>-0.04858490030050756</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.01219816636531234</v>
+      </c>
+      <c r="G86">
+        <v>0.03791545433950587</v>
+      </c>
+      <c r="H86">
+        <v>-0.0796483470490786</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03381022264177924</v>
+        <v>-0.01544744033919842</v>
       </c>
       <c r="C87">
-        <v>0.01789144629530011</v>
+        <v>-0.001825735494052898</v>
       </c>
       <c r="D87">
-        <v>0.04308392897441675</v>
+        <v>0.04873981016311604</v>
       </c>
       <c r="E87">
-        <v>-0.001412530331928839</v>
+        <v>-0.002693451082642112</v>
       </c>
       <c r="F87">
-        <v>-0.1063330872552917</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.0005326860216050136</v>
+      </c>
+      <c r="G87">
+        <v>0.07192351418773567</v>
+      </c>
+      <c r="H87">
+        <v>-0.08519992584934488</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01919025661916543</v>
+        <v>-0.03710642907959606</v>
       </c>
       <c r="C88">
-        <v>-0.005516989270870124</v>
+        <v>0.01253151959410838</v>
       </c>
       <c r="D88">
-        <v>-0.005005621014891709</v>
+        <v>0.02508125647859048</v>
       </c>
       <c r="E88">
-        <v>0.01632908927200225</v>
+        <v>0.02001442220634191</v>
       </c>
       <c r="F88">
-        <v>0.01524728637384561</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01496478659391265</v>
+      </c>
+      <c r="G88">
+        <v>-0.0006888009750383812</v>
+      </c>
+      <c r="H88">
+        <v>-0.006657072249659945</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1047880423749982</v>
+        <v>-0.3095785701529489</v>
       </c>
       <c r="C89">
-        <v>0.05007160890862918</v>
+        <v>0.01840770201393329</v>
       </c>
       <c r="D89">
-        <v>-0.3331452146313482</v>
+        <v>-0.2954398330607729</v>
       </c>
       <c r="E89">
-        <v>-0.02380003434722991</v>
+        <v>-0.01159871541662359</v>
       </c>
       <c r="F89">
-        <v>-0.1144411489417573</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01851689117019114</v>
+      </c>
+      <c r="G89">
+        <v>-0.01821655440800066</v>
+      </c>
+      <c r="H89">
+        <v>0.005898657515711235</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09148404826074634</v>
+        <v>-0.2597562977809855</v>
       </c>
       <c r="C90">
-        <v>0.0202991834843303</v>
+        <v>0.01736906780740701</v>
       </c>
       <c r="D90">
-        <v>-0.3635006072973435</v>
+        <v>-0.2757446306714433</v>
       </c>
       <c r="E90">
-        <v>-0.04185816428839357</v>
+        <v>-0.004568510533967023</v>
       </c>
       <c r="F90">
-        <v>-0.06166897116143608</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.0593961097382804</v>
+      </c>
+      <c r="G90">
+        <v>-0.002904518118068198</v>
+      </c>
+      <c r="H90">
+        <v>0.0542669714889077</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2570141996562295</v>
+        <v>-0.1976409387866389</v>
       </c>
       <c r="C91">
-        <v>0.177100393358956</v>
+        <v>-0.08027037912425523</v>
       </c>
       <c r="D91">
-        <v>0.02877553719512638</v>
+        <v>0.1896560214084063</v>
       </c>
       <c r="E91">
-        <v>0.1213539716204196</v>
+        <v>-0.002340466911505248</v>
       </c>
       <c r="F91">
-        <v>0.2449696376994234</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.08361745607336624</v>
+      </c>
+      <c r="G91">
+        <v>-0.1126438469693832</v>
+      </c>
+      <c r="H91">
+        <v>0.168901845964081</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1593939374017233</v>
+        <v>-0.2806224289999166</v>
       </c>
       <c r="C92">
-        <v>0.06994915887849568</v>
+        <v>-0.04482957912270004</v>
       </c>
       <c r="D92">
-        <v>-0.4136596350763987</v>
+        <v>-0.1884666165109476</v>
       </c>
       <c r="E92">
-        <v>0.1348177932049263</v>
+        <v>0.007188678747839692</v>
       </c>
       <c r="F92">
-        <v>0.01748081489021636</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.008670111560049478</v>
+      </c>
+      <c r="G92">
+        <v>0.03368596807270852</v>
+      </c>
+      <c r="H92">
+        <v>0.1468916073415603</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09031660538368511</v>
+        <v>-0.2895005752444706</v>
       </c>
       <c r="C93">
-        <v>0.05850128031132271</v>
+        <v>0.007248527329237521</v>
       </c>
       <c r="D93">
-        <v>-0.4344221458539566</v>
+        <v>-0.2775734078096588</v>
       </c>
       <c r="E93">
-        <v>-0.06637454606351165</v>
+        <v>-0.03292159447712233</v>
       </c>
       <c r="F93">
-        <v>-0.07659295538003878</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.05081663648601249</v>
+      </c>
+      <c r="G93">
+        <v>-0.01065915111530511</v>
+      </c>
+      <c r="H93">
+        <v>0.001352899314223027</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2514922926052723</v>
+        <v>-0.2449463009791085</v>
       </c>
       <c r="C94">
-        <v>0.1830934017544239</v>
+        <v>-0.077474258468461</v>
       </c>
       <c r="D94">
-        <v>0.03416011096698339</v>
+        <v>0.2126737782966457</v>
       </c>
       <c r="E94">
-        <v>0.2292030141363904</v>
+        <v>-0.006048838140157309</v>
       </c>
       <c r="F94">
-        <v>0.1904588593740169</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2075055047277747</v>
+      </c>
+      <c r="G94">
+        <v>-0.195247664481082</v>
+      </c>
+      <c r="H94">
+        <v>0.3839198658245548</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.01742212008614981</v>
+        <v>-0.02983615762736513</v>
       </c>
       <c r="C95">
-        <v>0.08572602498961339</v>
+        <v>-0.02785259128620426</v>
       </c>
       <c r="D95">
-        <v>0.0618511245492155</v>
+        <v>0.0961960612777945</v>
       </c>
       <c r="E95">
-        <v>-0.01292293449066729</v>
+        <v>-0.08148775407935771</v>
       </c>
       <c r="F95">
-        <v>-0.01484861965380738</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.01480292185827901</v>
+      </c>
+      <c r="G95">
+        <v>0.0407056375054247</v>
+      </c>
+      <c r="H95">
+        <v>-0.03347452466173734</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1412033115880351</v>
+        <v>-0.1883685080813053</v>
       </c>
       <c r="C98">
-        <v>0.1170665474782646</v>
+        <v>-0.04999478488156116</v>
       </c>
       <c r="D98">
-        <v>-0.02166798715088466</v>
+        <v>0.058779580705885</v>
       </c>
       <c r="E98">
-        <v>-0.04619797627756744</v>
+        <v>-0.06446894346196839</v>
       </c>
       <c r="F98">
-        <v>-0.1638632666988618</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.02221134969532149</v>
+      </c>
+      <c r="G98">
+        <v>0.06297368158197414</v>
+      </c>
+      <c r="H98">
+        <v>-0.3339685710373668</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.006686962223001418</v>
+        <v>-0.00857319142243558</v>
       </c>
       <c r="C101">
-        <v>-0.003093712121350669</v>
+        <v>0.001779716237777564</v>
       </c>
       <c r="D101">
-        <v>0.07365625843378389</v>
+        <v>0.01999383496496092</v>
       </c>
       <c r="E101">
-        <v>0.02303862411937293</v>
+        <v>-0.001088417467933787</v>
       </c>
       <c r="F101">
-        <v>-0.1694234636168944</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.001104188187917753</v>
+      </c>
+      <c r="G101">
+        <v>0.09978924828717184</v>
+      </c>
+      <c r="H101">
+        <v>0.01172750213450466</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1035205930835591</v>
+        <v>-0.0932019188062235</v>
       </c>
       <c r="C102">
-        <v>0.05944299629052675</v>
+        <v>-0.02674193258945122</v>
       </c>
       <c r="D102">
-        <v>0.02018652339498457</v>
+        <v>0.09666954708786704</v>
       </c>
       <c r="E102">
-        <v>0.06912149133072633</v>
+        <v>0.008140508885948991</v>
       </c>
       <c r="F102">
-        <v>0.09783368876468</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.04825176384315977</v>
+      </c>
+      <c r="G102">
+        <v>-0.05325097874706442</v>
+      </c>
+      <c r="H102">
+        <v>0.06431532541202675</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04220234794997828</v>
+        <v>-0.01226997980435817</v>
       </c>
       <c r="C103">
-        <v>0.01112021660117239</v>
+        <v>-0.005053610684488744</v>
       </c>
       <c r="D103">
-        <v>0.02899637375222002</v>
+        <v>0.01855106030750345</v>
       </c>
       <c r="E103">
-        <v>0.03355937439435418</v>
+        <v>0.01273816617320557</v>
       </c>
       <c r="F103">
-        <v>0.008267674021336539</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.004214186260010506</v>
+      </c>
+      <c r="G103">
+        <v>0.005623382450768744</v>
+      </c>
+      <c r="H103">
+        <v>0.01348037269457438</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1285802517997941</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9681170282520822</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1326079632519436</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03117673192964219</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1250787946909506</v>
+      </c>
+      <c r="G104">
+        <v>0.01332632447967721</v>
+      </c>
+      <c r="H104">
+        <v>0.05239013870154136</v>
       </c>
     </row>
   </sheetData>
